--- a/OldMutual/Output/OverallClaimMatchStatus.xlsx
+++ b/OldMutual/Output/OverallClaimMatchStatus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91888\OneDrive\Documents\UiPath\Old Mutual Final - Ramesh\Old-Mutual-Excel-Automation\OldMutual\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:80001_{54024974-6E69-4482-916B-7065006B8AD3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:80001_{E0F2C2ED-E21D-4D56-8779-8BE86A1EA4FC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8364" xr2:uid="{E6BB6E37-C4A8-4C8C-AFF0-FE9D60513CB3}"/>
   </bookViews>
@@ -25,10 +25,10 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="40" r:id="rId10"/>
-    <pivotCache cacheId="42" r:id="rId11"/>
-    <pivotCache cacheId="44" r:id="rId12"/>
-    <pivotCache cacheId="46" r:id="rId13"/>
+    <pivotCache cacheId="8" r:id="rId10"/>
+    <pivotCache cacheId="10" r:id="rId11"/>
+    <pivotCache cacheId="12" r:id="rId12"/>
+    <pivotCache cacheId="14" r:id="rId13"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -6546,7 +6546,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Guru Teja" refreshedDate="45282.854591550924" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="74" xr:uid="{852FBACE-1B1E-4DA3-899A-7C0E29E442BC}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Guru Teja" refreshedDate="45283.59944085648" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="74" xr:uid="{852FBACE-1B1E-4DA3-899A-7C0E29E442BC}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:AR100000" sheet="BenefitsExhaustedProvider"/>
   </cacheSource>
@@ -6693,7 +6693,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Guru Teja" refreshedDate="45282.85459166667" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="2" xr:uid="{A9093DC7-5850-44E5-B65A-C638C2F74F80}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Guru Teja" refreshedDate="45283.59944085648" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="2" xr:uid="{A9093DC7-5850-44E5-B65A-C638C2F74F80}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:AR100000" sheet="Declines-Non Clinical"/>
   </cacheSource>
@@ -6840,7 +6840,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Guru Teja" refreshedDate="45282.854591782409" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="78" xr:uid="{BE169367-AC6B-4FBA-8AE7-E065F84005D8}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Guru Teja" refreshedDate="45283.599441087965" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="78" xr:uid="{BE169367-AC6B-4FBA-8AE7-E065F84005D8}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:AR100000" sheet="Declines Miscellaneous"/>
   </cacheSource>
@@ -6987,7 +6987,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Guru Teja" refreshedDate="45282.854591898147" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="2" xr:uid="{C37ACDCE-0282-4A4A-87B0-11D6BC27972A}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Guru Teja" refreshedDate="45283.599441203703" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="2" xr:uid="{C37ACDCE-0282-4A4A-87B0-11D6BC27972A}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:AR100000" sheet="Declines-Missing Documentation."/>
   </cacheSource>
@@ -14330,7 +14330,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2243C6FA-B265-4EE3-9397-00420612F3C0}" name="PivotTable2" cacheId="44" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2243C6FA-B265-4EE3-9397-00420612F3C0}" name="PivotTable2" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="AU1:AV2" firstHeaderRow="0" firstDataRow="1" firstDataCol="0"/>
   <pivotFields count="44">
     <pivotField showAll="0"/>
@@ -14409,7 +14409,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{CD393A07-DAA5-48CC-9CCE-519A854C133F}" name="PivotTable3" cacheId="42" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{CD393A07-DAA5-48CC-9CCE-519A854C133F}" name="PivotTable3" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="AU1:AV2" firstHeaderRow="0" firstDataRow="1" firstDataCol="0"/>
   <pivotFields count="44">
     <pivotField showAll="0"/>
@@ -14488,7 +14488,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F5BA6752-C57A-4F7D-ABE1-61893B43A6C1}" name="PivotTable1" cacheId="46" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F5BA6752-C57A-4F7D-ABE1-61893B43A6C1}" name="PivotTable1" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="AV1:AW2" firstHeaderRow="0" firstDataRow="1" firstDataCol="0"/>
   <pivotFields count="44">
     <pivotField showAll="0"/>
@@ -14567,7 +14567,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D7F7DB76-BF0B-4300-AD9F-8A24694335C8}" name="PivotTable4" cacheId="40" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D7F7DB76-BF0B-4300-AD9F-8A24694335C8}" name="PivotTable4" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="AU1:AV2" firstHeaderRow="0" firstDataRow="1" firstDataCol="0"/>
   <pivotFields count="44">
     <pivotField showAll="0"/>

--- a/OldMutual/Output/OverallClaimMatchStatus.xlsx
+++ b/OldMutual/Output/OverallClaimMatchStatus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91888\OneDrive\Documents\UiPath\Old Mutual Final - Ramesh\Old-Mutual-Excel-Automation\OldMutual\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:80001_{E0F2C2ED-E21D-4D56-8779-8BE86A1EA4FC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:80001_{1B04F51A-46C9-4BEF-BF8C-F91644AD4E09}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8364" xr2:uid="{E6BB6E37-C4A8-4C8C-AFF0-FE9D60513CB3}"/>
   </bookViews>
@@ -6546,7 +6546,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Guru Teja" refreshedDate="45283.59944085648" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="74" xr:uid="{852FBACE-1B1E-4DA3-899A-7C0E29E442BC}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Guru Teja" refreshedDate="45289.620003124997" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="74" xr:uid="{852FBACE-1B1E-4DA3-899A-7C0E29E442BC}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:AR100000" sheet="BenefitsExhaustedProvider"/>
   </cacheSource>
@@ -6693,7 +6693,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Guru Teja" refreshedDate="45283.59944085648" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="2" xr:uid="{A9093DC7-5850-44E5-B65A-C638C2F74F80}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Guru Teja" refreshedDate="45289.620003356482" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="2" xr:uid="{A9093DC7-5850-44E5-B65A-C638C2F74F80}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:AR100000" sheet="Declines-Non Clinical"/>
   </cacheSource>
@@ -6840,7 +6840,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Guru Teja" refreshedDate="45283.599441087965" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="78" xr:uid="{BE169367-AC6B-4FBA-8AE7-E065F84005D8}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Guru Teja" refreshedDate="45289.620003472221" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="78" xr:uid="{BE169367-AC6B-4FBA-8AE7-E065F84005D8}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:AR100000" sheet="Declines Miscellaneous"/>
   </cacheSource>
@@ -6987,7 +6987,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Guru Teja" refreshedDate="45283.599441203703" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="2" xr:uid="{C37ACDCE-0282-4A4A-87B0-11D6BC27972A}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Guru Teja" refreshedDate="45289.620003703705" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="2" xr:uid="{C37ACDCE-0282-4A4A-87B0-11D6BC27972A}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:AR100000" sheet="Declines-Missing Documentation."/>
   </cacheSource>

--- a/OldMutual/Output/OverallClaimMatchStatus.xlsx
+++ b/OldMutual/Output/OverallClaimMatchStatus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91888\OneDrive\Documents\UiPath\Old Mutual Final - Ramesh\Old-Mutual-Excel-Automation\OldMutual\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:80001_{1B04F51A-46C9-4BEF-BF8C-F91644AD4E09}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:80001_{E2AE54B2-3637-4BEA-8748-BA1672109DA5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8364" xr2:uid="{E6BB6E37-C4A8-4C8C-AFF0-FE9D60513CB3}"/>
   </bookViews>
@@ -6546,7 +6546,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Guru Teja" refreshedDate="45289.620003124997" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="74" xr:uid="{852FBACE-1B1E-4DA3-899A-7C0E29E442BC}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Guru Teja" refreshedDate="45295.630526851855" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="74" xr:uid="{852FBACE-1B1E-4DA3-899A-7C0E29E442BC}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:AR100000" sheet="BenefitsExhaustedProvider"/>
   </cacheSource>
@@ -6693,7 +6693,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Guru Teja" refreshedDate="45289.620003356482" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="2" xr:uid="{A9093DC7-5850-44E5-B65A-C638C2F74F80}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Guru Teja" refreshedDate="45295.630527083333" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="2" xr:uid="{A9093DC7-5850-44E5-B65A-C638C2F74F80}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:AR100000" sheet="Declines-Non Clinical"/>
   </cacheSource>
@@ -6840,7 +6840,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Guru Teja" refreshedDate="45289.620003472221" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="78" xr:uid="{BE169367-AC6B-4FBA-8AE7-E065F84005D8}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Guru Teja" refreshedDate="45295.630527430556" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="78" xr:uid="{BE169367-AC6B-4FBA-8AE7-E065F84005D8}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:AR100000" sheet="Declines Miscellaneous"/>
   </cacheSource>
@@ -6987,7 +6987,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Guru Teja" refreshedDate="45289.620003703705" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="2" xr:uid="{C37ACDCE-0282-4A4A-87B0-11D6BC27972A}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Guru Teja" refreshedDate="45295.630527662041" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="2" xr:uid="{C37ACDCE-0282-4A4A-87B0-11D6BC27972A}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:AR100000" sheet="Declines-Missing Documentation."/>
   </cacheSource>
